--- a/exports/daily_reports/daily_report_2025-05-15.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-15.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-19 21:07:01</t>
+          <t>2025-05-19 21:33:02</t>
         </is>
       </c>
     </row>

--- a/exports/daily_reports/daily_report_2025-05-15.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-15.xlsx
@@ -37,12 +37,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+        <bgColor rgb="00DDDDDD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,12 +63,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -538,7 +547,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-19 21:33:02</t>
+          <t>2025-05-19 21:36:44</t>
         </is>
       </c>
     </row>
@@ -556,14 +565,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Asset ID</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Scheduled Start</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Actual Start</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Minutes Late</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Job Site</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Contact Info</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -574,14 +642,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Asset ID</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Scheduled End</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Actual End</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Minutes Early</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Job Site</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Contact Info</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -592,14 +719,67 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Asset ID</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Scheduled Job</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Actual Job</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Contact Info</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -610,14 +790,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Asset ID</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Job Site</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Contact Info</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/exports/daily_reports/daily_report_2025-05-15.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-15.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-19 21:36:44</t>
+          <t>2025-05-19 21:38:50</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,6 +628,479 @@
       <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Roger Doddy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2801 - 2899 Park Dr, Dalworthington Gardens, TX 76016</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Juan Berjes Ruiz</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2022-023 Riverfront &amp; Cadiz Bridge Improvement, 998 - 966 S Riverfront Blvd, Dallas, TX 75207</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(915)313-2552</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>jberjes@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SEYMORE HUNT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>HOU YARD/SHOP, 5103 - 5123 S Acres Dr, Houston, TX 77048</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEYMOREHUNT1994@GMAIL.COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JUAN LOPEZ-VAZQUEZ</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HOU YARD/SHOP, 5125 - 5201 S Acres Dr, Houston, TX 77048</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>jlvazquez@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ SERNA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TRAFFIC WALNUT HILL YARD, 10900 - 10984 Composite Dr, Dallas, TX 75220</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>paquin1979serna@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>COREY TORGERSON</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11769 - 11817 Panay Dr, Houston, TX 77048</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ctorgerson@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALBERTO ZUNIGA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TEXDIST, 1501 - 1547 Two Thousand Oak Apartments, North Richland Hills, TX 76180</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>azuniga@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ANTHONY HARDIMON</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>09:10</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Airport Fwy, Bedford, TX 76021</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ahardimon@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISAAC ROMERO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>07:46</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1400 - 2798 Timber Ct, Grand Prairie, TX 75052</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(469)563-9897</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>iromero@selectcompanyllc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cooper Link</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>07:36</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>141 - 101 Fossil Ridge Cir, Haltom City, TX 76137</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>clink@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ADAM H.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>07:15</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1640 - 1952 County Road 99, Alvin, TX 77511</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(682)216-7161</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>cchavez@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TROY MALETTE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>07:14</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9750 - 9700 Burwell Dr, Fort Worth, TX 76244</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>tmalette@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CALEB PADGETT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>07:02</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1108 - 1124 Highland Dr, Mansfield, TX 76063</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>cpadgett@ragleinc.com</t>
         </is>
       </c>
     </row>
@@ -790,7 +1263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,6 +1329,349 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Roger Doddy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2801 - 2899 Park Dr, Dalworthington Gardens, TX 76016</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Juan Berjes Ruiz</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2022-023 Riverfront &amp; Cadiz Bridge Improvement, 998 - 966 S Riverfront Blvd, Dallas, TX 75207</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(915)313-2552</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>jberjes@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SEYMORE HUNT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>HOU YARD/SHOP, 5103 - 5123 S Acres Dr, Houston, TX 77048</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SEYMOREHUNT1994@GMAIL.COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JUAN LOPEZ-VAZQUEZ</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HOU YARD/SHOP, 5125 - 5201 S Acres Dr, Houston, TX 77048</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>jlvazquez@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FRANCISCO DIAZ SERNA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TRAFFIC WALNUT HILL YARD, 10900 - 10984 Composite Dr, Dallas, TX 75220</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>paquin1979serna@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>COREY TORGERSON</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11769 - 11817 Panay Dr, Houston, TX 77048</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ctorgerson@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALBERTO ZUNIGA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TEXDIST, 1501 - 1547 Two Thousand Oak Apartments, North Richland Hills, TX 76180</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>azuniga@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ANTHONY HARDIMON</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Airport Fwy, Bedford, TX 76021</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ahardimon@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISAAC ROMERO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1400 - 2798 Timber Ct, Grand Prairie, TX 75052</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(469)563-9897</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>iromero@selectcompanyllc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cooper Link</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>141 - 101 Fossil Ridge Cir, Haltom City, TX 76137</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>clink@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ADAM H.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1640 - 1952 County Road 99, Alvin, TX 77511</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(682)216-7161</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>cchavez@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TROY MALETTE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9750 - 9700 Burwell Dr, Fort Worth, TX 76244</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>tmalette@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CALEB PADGETT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1108 - 1124 Highland Dr, Mansfield, TX 76063</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>cpadgett@ragleinc.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/exports/daily_reports/daily_report_2025-05-15.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-15.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-19 21:38:50</t>
+          <t>2025-05-20 03:23:20</t>
         </is>
       </c>
     </row>

--- a/exports/daily_reports/daily_report_2025-05-15.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-15.xlsx
@@ -51,7 +51,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,11 +59,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -72,6 +86,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -547,7 +562,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-20 03:23:20</t>
+          <t>2025-05-20 03:26:25</t>
         </is>
       </c>
     </row>
@@ -632,473 +647,473 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Roger Doddy</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr"/>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>20:18</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>2801 - 2899 Park Dr, Dalworthington Gardens, TX 76016</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="G2" s="4" t="inlineStr"/>
+      <c r="H2" s="4" t="inlineStr"/>
+      <c r="I2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Juan Berjes Ruiz</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>17:06</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>2022-023 Riverfront &amp; Cadiz Bridge Improvement, 998 - 966 S Riverfront Blvd, Dallas, TX 75207</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr"/>
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>(915)313-2552</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>jberjes@ragleinc.com</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>SEYMORE HUNT</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>HOU YARD/SHOP, 5103 - 5123 S Acres Dr, Houston, TX 77048</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>SEYMOREHUNT1994@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>JUAN LOPEZ-VAZQUEZ</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>15:24</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>HOU YARD/SHOP, 5125 - 5201 S Acres Dr, Houston, TX 77048</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>jlvazquez@ragleinc.com</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>FRANCISCO DIAZ SERNA</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>12:13</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>TRAFFIC WALNUT HILL YARD, 10900 - 10984 Composite Dr, Dallas, TX 75220</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>paquin1979serna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>COREY TORGERSON</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>11:15</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>11769 - 11817 Panay Dr, Houston, TX 77048</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>ctorgerson@ragleinc.com</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>ALBERTO ZUNIGA</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr"/>
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>09:59</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>TEXDIST, 1501 - 1547 Two Thousand Oak Apartments, North Richland Hills, TX 76180</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
         <is>
           <t>azuniga@ragleinc.com</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>ANTHONY HARDIMON</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>09:10</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Airport Fwy, Bedford, TX 76021</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr"/>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>ahardimon@ragleinc.com</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>ISAAC ROMERO</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>07:46</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>1400 - 2798 Timber Ct, Grand Prairie, TX 75052</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr"/>
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>(469)563-9897</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="4" t="inlineStr">
         <is>
           <t>iromero@selectcompanyllc.com</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Cooper Link</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>07:36</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>141 - 101 Fossil Ridge Cir, Haltom City, TX 76137</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>clink@ragleinc.com</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>ADAM H.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr"/>
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>07:15</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>1640 - 1952 County Road 99, Alvin, TX 77511</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr"/>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>(682)216-7161</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" s="4" t="inlineStr">
         <is>
           <t>cchavez@ragleinc.com</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>TROY MALETTE</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr"/>
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>07:14</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>9750 - 9700 Burwell Dr, Fort Worth, TX 76244</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr"/>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t>tmalette@ragleinc.com</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>CALEB PADGETT</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr"/>
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>07:02</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>1108 - 1124 Highland Dr, Mansfield, TX 76063</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr"/>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>cpadgett@ragleinc.com</t>
         </is>

--- a/exports/daily_reports/daily_report_2025-05-15.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-15.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-20 03:26:25</t>
+          <t>2025-05-20 03:47:50</t>
         </is>
       </c>
     </row>

--- a/exports/daily_reports/daily_report_2025-05-15.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-15.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,345 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>arrival</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>departure</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>John Smith</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RAM-2500</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mary Johnson</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>F-150</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>07:15 AM</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Robert Williams</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ET-05</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Patricia Brown</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RAM-3500</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>07:10 AM</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Michael Davis</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ET-12</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>06:50 AM</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Linda Miller</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>F-250</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>RAM-1500</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>07:05 AM</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Elizabeth Moore</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ET-08</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>06:45 AM</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>David Taylor</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>F-350</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Early Departure</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Jennifer Anderson</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RAM-2500</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>07:20 AM</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Charles Thomas</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ET-15</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Barbara Jackson</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>F-150</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>06:55 AM</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Roger Doddy</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>UNMATCHED</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/exports/daily_reports/daily_report_2025-05-15.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-15.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,89 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>arrival</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>division</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>job_title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Roger Doddy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DODROG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PT-07S</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>04:45 AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TEXDIST</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Select Maintenance Employee</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>